--- a/biology/Botanique/Square_de_Passy/Square_de_Passy.xlsx
+++ b/biology/Botanique/Square_de_Passy/Square_de_Passy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de Passy est un square du 16e arrondissement de Paris, longeant le bois de Boulogne.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est accessible par la route des Lacs-à-Passy, la place de la Porte-de-Passy et l'allée des Fortifications[1].
-Le square est accessible 24 heures sur 24[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est accessible par la route des Lacs-à-Passy, la place de la Porte-de-Passy et l'allée des Fortifications.
+Le square est accessible 24 heures sur 24.
 Il est desservi par la ligne 9 à la station Ranelagh.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de l'ancien village de Passy.
 </t>
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square de Passy est ouvert et prend sa dénomination actuelle dans les années 1930. De taille modeste, il est aménagé à l'emplacement d'un bastion de l'enceinte de Thiers, construite au milieu du XIXe siècle et démolie dans l'entre-deux-guerres[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square de Passy est ouvert et prend sa dénomination actuelle dans les années 1930. De taille modeste, il est aménagé à l'emplacement d'un bastion de l'enceinte de Thiers, construite au milieu du XIXe siècle et démolie dans l'entre-deux-guerres.
 			Entrée.
 </t>
         </is>
@@ -608,11 +626,13 @@
           <t>Bâtiments et aménagements remarquables à proximité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bois de Boulogne
 Hippodrome d'Auteuil
-Piscine d'Auteuil[2]</t>
+Piscine d'Auteuil</t>
         </is>
       </c>
     </row>
